--- a/T04_M2_D1_Project_Status_files/T04_M2_D1_Project_Status_Week_Ending_2018_03_13.xlsx
+++ b/T04_M2_D1_Project_Status_files/T04_M2_D1_Project_Status_Week_Ending_2018_03_13.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2803E5-47DC-4787-B8CC-B82A2996AB5E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFFD6A1-96F2-4DB9-B1E4-FF5770204751}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Week Ending:</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Metadata preparation</t>
+  </si>
+  <si>
+    <t>Prepare metadata for each of the dimension tables and the fact table</t>
   </si>
 </sst>
 </file>
@@ -1048,28 +1054,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O632"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.33203125" style="2"/>
+    <col min="14" max="16384" width="16.36328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1167,16 +1173,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15">
         <f t="shared" ref="F5:J5" si="0">SUM(F10:F65)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="0"/>
@@ -1184,21 +1190,21 @@
       </c>
       <c r="I5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="D8" s="31"/>
@@ -1268,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="D9" s="31"/>
@@ -1300,7 +1306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1338,21 +1344,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="23"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+    <row r="11" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="12">
+        <v>43166</v>
+      </c>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="23"/>
       <c r="D12" s="23"/>
@@ -1367,7 +1393,7 @@
       <c r="M12" s="12"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="D13" s="23"/>
@@ -1381,7 +1407,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="D14" s="8"/>
@@ -1395,7 +1421,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="D15" s="8"/>
@@ -1409,7 +1435,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="D16" s="8"/>
@@ -1426,7 +1452,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="D17" s="8"/>
@@ -1443,7 +1469,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="D18" s="8"/>
@@ -1460,7 +1486,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="D19" s="8"/>
@@ -1477,7 +1503,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="D20" s="8"/>
@@ -1494,7 +1520,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="D21" s="8"/>
@@ -1511,7 +1537,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="D22" s="8"/>
@@ -1528,7 +1554,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="D23" s="8"/>
@@ -1545,7 +1571,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="D24" s="8"/>
@@ -1562,7 +1588,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="D25" s="8"/>
@@ -1579,7 +1605,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="D26" s="8"/>
@@ -1596,7 +1622,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="D27" s="8"/>
@@ -1613,7 +1639,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="D28" s="8"/>
@@ -1630,7 +1656,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="D29" s="8"/>
@@ -1647,7 +1673,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="D30" s="8"/>
@@ -1664,7 +1690,7 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="D31" s="8"/>
@@ -1681,7 +1707,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="D32" s="8"/>
@@ -1698,7 +1724,7 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="D33" s="8"/>
@@ -1715,7 +1741,7 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="D34" s="8"/>
@@ -1732,7 +1758,7 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="D35" s="8"/>
@@ -1749,7 +1775,7 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="D36" s="8"/>
@@ -1766,7 +1792,7 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="D37" s="8"/>
@@ -1783,7 +1809,7 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="D38" s="8"/>
@@ -1800,7 +1826,7 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="D39" s="8"/>
@@ -1817,7 +1843,7 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="D40" s="8"/>
@@ -1834,7 +1860,7 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="D41" s="8"/>
@@ -1851,7 +1877,7 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
@@ -1868,7 +1894,7 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="D43" s="8"/>
@@ -1885,7 +1911,7 @@
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="D44" s="8"/>
@@ -1902,7 +1928,7 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="D45" s="8"/>
@@ -1919,7 +1945,7 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="D46" s="8"/>
@@ -1936,7 +1962,7 @@
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="D47" s="8"/>
@@ -1953,7 +1979,7 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
@@ -1970,7 +1996,7 @@
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
@@ -1987,7 +2013,7 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="D50" s="8"/>
@@ -2004,7 +2030,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="D51" s="8"/>
@@ -2021,7 +2047,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="D52" s="8"/>
@@ -2038,7 +2064,7 @@
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="D53" s="8"/>
@@ -2055,7 +2081,7 @@
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
@@ -2072,7 +2098,7 @@
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="D55" s="8"/>
@@ -2089,7 +2115,7 @@
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="D56" s="8"/>
@@ -2106,7 +2132,7 @@
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="D57" s="8"/>
@@ -2123,7 +2149,7 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="D58" s="8"/>
@@ -2140,7 +2166,7 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="D59" s="8"/>
@@ -2157,7 +2183,7 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
@@ -2174,7 +2200,7 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="D61" s="8"/>
@@ -2191,7 +2217,7 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="D62" s="8"/>
@@ -2208,7 +2234,7 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
@@ -2225,7 +2251,7 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
@@ -2242,7 +2268,7 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="D65" s="8"/>
@@ -2259,7 +2285,7 @@
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -2270,7 +2296,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -2281,7 +2307,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -2292,7 +2318,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -2303,7 +2329,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -2314,7 +2340,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -2325,7 +2351,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -2336,7 +2362,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -2347,7 +2373,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -2358,7 +2384,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -2369,7 +2395,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -2380,7 +2406,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -2391,7 +2417,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -2402,7 +2428,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -2413,7 +2439,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -2424,7 +2450,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -2435,7 +2461,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -2446,7 +2472,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -2457,7 +2483,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -2468,7 +2494,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -2479,7 +2505,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -2490,7 +2516,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -2501,7 +2527,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -2512,7 +2538,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -2523,7 +2549,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -2534,7 +2560,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -2545,7 +2571,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -2556,7 +2582,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -2567,7 +2593,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -2578,7 +2604,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -2589,7 +2615,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -2600,7 +2626,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
     </row>
-    <row r="97" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -2611,7 +2637,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
     </row>
-    <row r="98" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -2622,7 +2648,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -2633,7 +2659,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -2644,7 +2670,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -2655,7 +2681,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
     </row>
-    <row r="102" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -2666,7 +2692,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
-    <row r="103" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -2677,7 +2703,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
     </row>
-    <row r="104" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -2688,7 +2714,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -2699,7 +2725,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
     </row>
-    <row r="106" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -2710,7 +2736,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
     </row>
-    <row r="107" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -2719,7 +2745,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -2728,7 +2754,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -2737,7 +2763,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -2746,7 +2772,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -2755,7 +2781,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -2764,7 +2790,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -2773,7 +2799,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -2782,7 +2808,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -2791,1555 +2817,1555 @@
       <c r="J115" s="4"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:11" x14ac:dyDescent="0.35">
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K193" s="3"/>
     </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K194" s="3"/>
     </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K195" s="3"/>
     </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K196" s="3"/>
     </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K197" s="3"/>
     </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K201" s="3"/>
     </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K203" s="3"/>
     </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K204" s="3"/>
     </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K205" s="3"/>
     </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K207" s="3"/>
     </row>
-    <row r="208" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K212" s="3"/>
     </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K224" s="3"/>
     </row>
-    <row r="225" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K226" s="3"/>
     </row>
-    <row r="227" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K228" s="3"/>
     </row>
-    <row r="229" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K229" s="3"/>
     </row>
-    <row r="230" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K230" s="3"/>
     </row>
-    <row r="231" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K233" s="3"/>
     </row>
-    <row r="234" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K234" s="3"/>
     </row>
-    <row r="235" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K235" s="3"/>
     </row>
-    <row r="236" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K236" s="3"/>
     </row>
-    <row r="237" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K237" s="3"/>
     </row>
-    <row r="238" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K238" s="3"/>
     </row>
-    <row r="239" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K239" s="3"/>
     </row>
-    <row r="240" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K254" s="3"/>
     </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K255" s="3"/>
     </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K256" s="3"/>
     </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K257" s="3"/>
     </row>
-    <row r="258" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K258" s="3"/>
     </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K259" s="3"/>
     </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K260" s="3"/>
     </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K261" s="3"/>
     </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K262" s="3"/>
     </row>
-    <row r="263" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K263" s="3"/>
     </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K264" s="3"/>
     </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K265" s="3"/>
     </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K266" s="3"/>
     </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K267" s="3"/>
     </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K268" s="3"/>
     </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K269" s="3"/>
     </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K270" s="3"/>
     </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K271" s="3"/>
     </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K272" s="3"/>
     </row>
-    <row r="273" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K273" s="3"/>
     </row>
-    <row r="274" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K274" s="3"/>
     </row>
-    <row r="275" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K275" s="3"/>
     </row>
-    <row r="276" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K276" s="3"/>
     </row>
-    <row r="277" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K277" s="3"/>
     </row>
-    <row r="278" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K278" s="3"/>
     </row>
-    <row r="279" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K279" s="3"/>
     </row>
-    <row r="280" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K280" s="3"/>
     </row>
-    <row r="281" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K281" s="3"/>
     </row>
-    <row r="282" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K282" s="3"/>
     </row>
-    <row r="283" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K283" s="3"/>
     </row>
-    <row r="284" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K284" s="3"/>
     </row>
-    <row r="285" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K285" s="3"/>
     </row>
-    <row r="286" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K286" s="3"/>
     </row>
-    <row r="287" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K287" s="3"/>
     </row>
-    <row r="288" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K289" s="3"/>
     </row>
-    <row r="290" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K290" s="3"/>
     </row>
-    <row r="291" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K291" s="3"/>
     </row>
-    <row r="292" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K292" s="3"/>
     </row>
-    <row r="293" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K293" s="3"/>
     </row>
-    <row r="294" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K294" s="3"/>
     </row>
-    <row r="295" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K295" s="3"/>
     </row>
-    <row r="296" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K296" s="3"/>
     </row>
-    <row r="297" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K297" s="3"/>
     </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K299" s="3"/>
     </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K300" s="3"/>
     </row>
-    <row r="301" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K301" s="3"/>
     </row>
-    <row r="302" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K302" s="3"/>
     </row>
-    <row r="303" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K303" s="3"/>
     </row>
-    <row r="304" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K304" s="3"/>
     </row>
-    <row r="305" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K305" s="3"/>
     </row>
-    <row r="306" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K306" s="3"/>
     </row>
-    <row r="307" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K307" s="3"/>
     </row>
-    <row r="308" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K308" s="3"/>
     </row>
-    <row r="309" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K309" s="3"/>
     </row>
-    <row r="310" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K310" s="3"/>
     </row>
-    <row r="311" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K311" s="3"/>
     </row>
-    <row r="312" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K312" s="3"/>
     </row>
-    <row r="313" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K313" s="3"/>
     </row>
-    <row r="314" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K314" s="3"/>
     </row>
-    <row r="315" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K315" s="3"/>
     </row>
-    <row r="316" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K316" s="3"/>
     </row>
-    <row r="317" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K317" s="3"/>
     </row>
-    <row r="318" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K318" s="3"/>
     </row>
-    <row r="319" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K319" s="3"/>
     </row>
-    <row r="320" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K320" s="3"/>
     </row>
-    <row r="321" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K321" s="3"/>
     </row>
-    <row r="322" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K322" s="3"/>
     </row>
-    <row r="323" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K323" s="3"/>
     </row>
-    <row r="324" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K324" s="3"/>
     </row>
-    <row r="325" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K325" s="3"/>
     </row>
-    <row r="326" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K326" s="3"/>
     </row>
-    <row r="327" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K327" s="3"/>
     </row>
-    <row r="328" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K328" s="3"/>
     </row>
-    <row r="329" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K329" s="3"/>
     </row>
-    <row r="330" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K330" s="3"/>
     </row>
-    <row r="331" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K331" s="3"/>
     </row>
-    <row r="332" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K332" s="3"/>
     </row>
-    <row r="333" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K333" s="3"/>
     </row>
-    <row r="334" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K334" s="3"/>
     </row>
-    <row r="335" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K335" s="3"/>
     </row>
-    <row r="336" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K336" s="3"/>
     </row>
-    <row r="337" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K337" s="3"/>
     </row>
-    <row r="338" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K338" s="3"/>
     </row>
-    <row r="339" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K340" s="3"/>
     </row>
-    <row r="341" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K341" s="3"/>
     </row>
-    <row r="342" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K342" s="3"/>
     </row>
-    <row r="343" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K343" s="3"/>
     </row>
-    <row r="344" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K344" s="3"/>
     </row>
-    <row r="345" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K345" s="3"/>
     </row>
-    <row r="346" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K346" s="3"/>
     </row>
-    <row r="347" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K347" s="3"/>
     </row>
-    <row r="348" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K349" s="3"/>
     </row>
-    <row r="350" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K350" s="3"/>
     </row>
-    <row r="351" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K351" s="3"/>
     </row>
-    <row r="352" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K352" s="3"/>
     </row>
-    <row r="353" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K353" s="3"/>
     </row>
-    <row r="354" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K355" s="3"/>
     </row>
-    <row r="356" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K356" s="3"/>
     </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K357" s="3"/>
     </row>
-    <row r="358" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K358" s="3"/>
     </row>
-    <row r="359" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K359" s="3"/>
     </row>
-    <row r="360" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K360" s="3"/>
     </row>
-    <row r="361" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K361" s="3"/>
     </row>
-    <row r="362" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K362" s="3"/>
     </row>
-    <row r="363" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K363" s="3"/>
     </row>
-    <row r="364" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K364" s="3"/>
     </row>
-    <row r="365" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K365" s="3"/>
     </row>
-    <row r="366" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K366" s="3"/>
     </row>
-    <row r="367" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K367" s="3"/>
     </row>
-    <row r="368" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K368" s="3"/>
     </row>
-    <row r="369" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K369" s="3"/>
     </row>
-    <row r="370" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K370" s="3"/>
     </row>
-    <row r="371" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K371" s="3"/>
     </row>
-    <row r="372" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K372" s="3"/>
     </row>
-    <row r="373" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K373" s="3"/>
     </row>
-    <row r="374" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K374" s="3"/>
     </row>
-    <row r="375" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K375" s="3"/>
     </row>
-    <row r="376" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K376" s="3"/>
     </row>
-    <row r="377" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K377" s="3"/>
     </row>
-    <row r="378" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K378" s="3"/>
     </row>
-    <row r="379" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K379" s="3"/>
     </row>
-    <row r="380" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K380" s="3"/>
     </row>
-    <row r="381" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K381" s="3"/>
     </row>
-    <row r="382" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K382" s="3"/>
     </row>
-    <row r="383" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K383" s="3"/>
     </row>
-    <row r="384" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K384" s="3"/>
     </row>
-    <row r="385" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K385" s="3"/>
     </row>
-    <row r="386" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K386" s="3"/>
     </row>
-    <row r="387" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K387" s="3"/>
     </row>
-    <row r="388" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K388" s="3"/>
     </row>
-    <row r="389" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K389" s="3"/>
     </row>
-    <row r="390" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K390" s="3"/>
     </row>
-    <row r="391" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K391" s="3"/>
     </row>
-    <row r="392" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K392" s="3"/>
     </row>
-    <row r="393" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K393" s="3"/>
     </row>
-    <row r="394" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K394" s="3"/>
     </row>
-    <row r="395" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K395" s="3"/>
     </row>
-    <row r="396" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K396" s="3"/>
     </row>
-    <row r="397" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K397" s="3"/>
     </row>
-    <row r="398" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K398" s="3"/>
     </row>
-    <row r="399" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K399" s="3"/>
     </row>
-    <row r="400" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K400" s="3"/>
     </row>
-    <row r="401" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K401" s="3"/>
     </row>
-    <row r="402" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K402" s="3"/>
     </row>
-    <row r="403" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K403" s="3"/>
     </row>
-    <row r="404" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K404" s="3"/>
     </row>
-    <row r="405" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K405" s="3"/>
     </row>
-    <row r="406" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K406" s="3"/>
     </row>
-    <row r="407" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K407" s="3"/>
     </row>
-    <row r="408" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K408" s="3"/>
     </row>
-    <row r="409" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K409" s="3"/>
     </row>
-    <row r="410" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K410" s="3"/>
     </row>
-    <row r="411" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K411" s="3"/>
     </row>
-    <row r="412" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K412" s="3"/>
     </row>
-    <row r="413" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K413" s="3"/>
     </row>
-    <row r="414" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K414" s="3"/>
     </row>
-    <row r="415" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K415" s="3"/>
     </row>
-    <row r="416" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K416" s="3"/>
     </row>
-    <row r="417" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K417" s="3"/>
     </row>
-    <row r="418" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K418" s="3"/>
     </row>
-    <row r="419" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K419" s="3"/>
     </row>
-    <row r="420" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K420" s="3"/>
     </row>
-    <row r="421" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K421" s="3"/>
     </row>
-    <row r="422" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K422" s="3"/>
     </row>
-    <row r="423" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K423" s="3"/>
     </row>
-    <row r="424" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K424" s="3"/>
     </row>
-    <row r="425" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K425" s="3"/>
     </row>
-    <row r="426" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K426" s="3"/>
     </row>
-    <row r="427" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K427" s="3"/>
     </row>
-    <row r="428" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K428" s="3"/>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K429" s="3"/>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K430" s="3"/>
     </row>
-    <row r="431" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K431" s="3"/>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K432" s="3"/>
     </row>
-    <row r="433" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K433" s="3"/>
     </row>
-    <row r="434" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K434" s="3"/>
     </row>
-    <row r="435" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K435" s="3"/>
     </row>
-    <row r="436" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K436" s="3"/>
     </row>
-    <row r="437" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K437" s="3"/>
     </row>
-    <row r="438" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K438" s="3"/>
     </row>
-    <row r="439" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K439" s="3"/>
     </row>
-    <row r="440" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K440" s="3"/>
     </row>
-    <row r="441" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K441" s="3"/>
     </row>
-    <row r="442" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K442" s="3"/>
     </row>
-    <row r="443" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K443" s="3"/>
     </row>
-    <row r="444" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K444" s="3"/>
     </row>
-    <row r="445" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K445" s="3"/>
     </row>
-    <row r="446" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K446" s="3"/>
     </row>
-    <row r="447" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K447" s="3"/>
     </row>
-    <row r="448" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K448" s="3"/>
     </row>
-    <row r="449" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K449" s="3"/>
     </row>
-    <row r="450" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K450" s="3"/>
     </row>
-    <row r="451" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K451" s="3"/>
     </row>
-    <row r="452" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K452" s="3"/>
     </row>
-    <row r="453" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K453" s="3"/>
     </row>
-    <row r="454" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K454" s="3"/>
     </row>
-    <row r="455" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K455" s="3"/>
     </row>
-    <row r="456" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K456" s="3"/>
     </row>
-    <row r="457" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K457" s="3"/>
     </row>
-    <row r="458" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K458" s="3"/>
     </row>
-    <row r="459" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K459" s="3"/>
     </row>
-    <row r="460" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K460" s="3"/>
     </row>
-    <row r="461" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K461" s="3"/>
     </row>
-    <row r="462" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K462" s="3"/>
     </row>
-    <row r="463" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K463" s="3"/>
     </row>
-    <row r="464" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K464" s="3"/>
     </row>
-    <row r="465" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K465" s="3"/>
     </row>
-    <row r="466" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K466" s="3"/>
     </row>
-    <row r="467" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K467" s="3"/>
     </row>
-    <row r="468" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K468" s="3"/>
     </row>
-    <row r="469" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K469" s="3"/>
     </row>
-    <row r="470" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K470" s="3"/>
     </row>
-    <row r="471" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K471" s="3"/>
     </row>
-    <row r="472" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K472" s="3"/>
     </row>
-    <row r="473" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K473" s="3"/>
     </row>
-    <row r="474" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K474" s="3"/>
     </row>
-    <row r="475" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K475" s="3"/>
     </row>
-    <row r="476" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K476" s="3"/>
     </row>
-    <row r="477" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K477" s="3"/>
     </row>
-    <row r="478" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K478" s="3"/>
     </row>
-    <row r="479" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K479" s="3"/>
     </row>
-    <row r="480" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K480" s="3"/>
     </row>
-    <row r="481" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K481" s="3"/>
     </row>
-    <row r="482" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K482" s="3"/>
     </row>
-    <row r="483" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K483" s="3"/>
     </row>
-    <row r="484" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K484" s="3"/>
     </row>
-    <row r="485" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K485" s="3"/>
     </row>
-    <row r="486" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K486" s="3"/>
     </row>
-    <row r="487" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K487" s="3"/>
     </row>
-    <row r="488" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K488" s="3"/>
     </row>
-    <row r="489" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K489" s="3"/>
     </row>
-    <row r="490" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K490" s="3"/>
     </row>
-    <row r="491" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K491" s="3"/>
     </row>
-    <row r="492" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K492" s="3"/>
     </row>
-    <row r="493" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K493" s="3"/>
     </row>
-    <row r="494" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K494" s="3"/>
     </row>
-    <row r="495" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K495" s="3"/>
     </row>
-    <row r="496" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K496" s="3"/>
     </row>
-    <row r="497" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K497" s="3"/>
     </row>
-    <row r="498" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K498" s="3"/>
     </row>
-    <row r="499" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K499" s="3"/>
     </row>
-    <row r="500" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K500" s="3"/>
     </row>
-    <row r="501" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K501" s="3"/>
     </row>
-    <row r="502" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K502" s="3"/>
     </row>
-    <row r="503" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K503" s="3"/>
     </row>
-    <row r="504" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K504" s="3"/>
     </row>
-    <row r="505" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K505" s="3"/>
     </row>
-    <row r="506" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K506" s="3"/>
     </row>
-    <row r="507" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K507" s="3"/>
     </row>
-    <row r="508" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K508" s="3"/>
     </row>
-    <row r="509" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K509" s="3"/>
     </row>
-    <row r="510" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K510" s="3"/>
     </row>
-    <row r="511" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K511" s="3"/>
     </row>
-    <row r="512" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K512" s="3"/>
     </row>
-    <row r="513" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K513" s="3"/>
     </row>
-    <row r="514" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K514" s="3"/>
     </row>
-    <row r="515" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K515" s="3"/>
     </row>
-    <row r="516" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K516" s="3"/>
     </row>
-    <row r="517" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K517" s="3"/>
     </row>
-    <row r="518" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K518" s="3"/>
     </row>
-    <row r="519" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K519" s="3"/>
     </row>
-    <row r="520" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K520" s="3"/>
     </row>
-    <row r="521" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K521" s="3"/>
     </row>
-    <row r="522" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K522" s="3"/>
     </row>
-    <row r="523" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K523" s="3"/>
     </row>
-    <row r="524" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K524" s="3"/>
     </row>
-    <row r="525" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K525" s="3"/>
     </row>
-    <row r="526" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K526" s="3"/>
     </row>
-    <row r="527" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K527" s="3"/>
     </row>
-    <row r="528" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K528" s="3"/>
     </row>
-    <row r="529" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K529" s="3"/>
     </row>
-    <row r="530" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K530" s="3"/>
     </row>
-    <row r="531" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K531" s="3"/>
     </row>
-    <row r="532" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K532" s="3"/>
     </row>
-    <row r="533" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K533" s="3"/>
     </row>
-    <row r="534" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K534" s="3"/>
     </row>
-    <row r="535" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K535" s="3"/>
     </row>
-    <row r="536" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K536" s="3"/>
     </row>
-    <row r="537" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K537" s="3"/>
     </row>
-    <row r="538" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K538" s="3"/>
     </row>
-    <row r="539" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K539" s="3"/>
     </row>
-    <row r="540" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K540" s="3"/>
     </row>
-    <row r="541" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K541" s="3"/>
     </row>
-    <row r="542" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K542" s="3"/>
     </row>
-    <row r="543" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K543" s="3"/>
     </row>
-    <row r="544" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K544" s="3"/>
     </row>
-    <row r="545" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K545" s="3"/>
     </row>
-    <row r="546" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K546" s="3"/>
     </row>
-    <row r="547" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K547" s="3"/>
     </row>
-    <row r="548" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K548" s="3"/>
     </row>
-    <row r="549" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K549" s="3"/>
     </row>
-    <row r="550" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K550" s="3"/>
     </row>
-    <row r="551" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K551" s="3"/>
     </row>
-    <row r="552" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K552" s="3"/>
     </row>
-    <row r="553" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K553" s="3"/>
     </row>
-    <row r="554" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K554" s="3"/>
     </row>
-    <row r="555" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K555" s="3"/>
     </row>
-    <row r="556" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K556" s="3"/>
     </row>
-    <row r="557" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K557" s="3"/>
     </row>
-    <row r="558" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K558" s="3"/>
     </row>
-    <row r="559" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K559" s="3"/>
     </row>
-    <row r="560" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K560" s="3"/>
     </row>
-    <row r="561" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K561" s="3"/>
     </row>
-    <row r="562" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K562" s="3"/>
     </row>
-    <row r="563" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K563" s="3"/>
     </row>
-    <row r="564" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K564" s="3"/>
     </row>
-    <row r="565" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K565" s="3"/>
     </row>
-    <row r="566" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K566" s="3"/>
     </row>
-    <row r="567" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K567" s="3"/>
     </row>
-    <row r="568" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K568" s="3"/>
     </row>
-    <row r="569" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K569" s="3"/>
     </row>
-    <row r="570" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K570" s="3"/>
     </row>
-    <row r="571" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K571" s="3"/>
     </row>
-    <row r="572" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K572" s="3"/>
     </row>
-    <row r="573" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K573" s="3"/>
     </row>
-    <row r="574" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K574" s="3"/>
     </row>
-    <row r="575" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K575" s="3"/>
     </row>
-    <row r="576" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K576" s="3"/>
     </row>
-    <row r="577" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K577" s="3"/>
     </row>
-    <row r="578" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K578" s="3"/>
     </row>
-    <row r="579" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K579" s="3"/>
     </row>
-    <row r="580" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K580" s="3"/>
     </row>
-    <row r="581" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K581" s="3"/>
     </row>
-    <row r="582" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K582" s="3"/>
     </row>
-    <row r="583" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K583" s="3"/>
     </row>
-    <row r="584" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K584" s="3"/>
     </row>
-    <row r="585" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K585" s="3"/>
     </row>
-    <row r="586" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K586" s="3"/>
     </row>
-    <row r="587" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K587" s="3"/>
     </row>
-    <row r="588" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K588" s="3"/>
     </row>
-    <row r="589" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K589" s="3"/>
     </row>
-    <row r="590" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K590" s="3"/>
     </row>
-    <row r="591" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K591" s="3"/>
     </row>
-    <row r="592" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K592" s="3"/>
     </row>
-    <row r="593" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K593" s="3"/>
     </row>
-    <row r="594" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K594" s="3"/>
     </row>
-    <row r="595" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K595" s="3"/>
     </row>
-    <row r="596" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K596" s="3"/>
     </row>
-    <row r="597" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K597" s="3"/>
     </row>
-    <row r="598" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K598" s="3"/>
     </row>
-    <row r="599" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K599" s="3"/>
     </row>
-    <row r="600" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K600" s="3"/>
     </row>
-    <row r="601" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K601" s="3"/>
     </row>
-    <row r="602" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K602" s="3"/>
     </row>
-    <row r="603" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K603" s="3"/>
     </row>
-    <row r="604" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K604" s="3"/>
     </row>
-    <row r="605" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K605" s="3"/>
     </row>
-    <row r="606" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K606" s="3"/>
     </row>
-    <row r="607" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K607" s="3"/>
     </row>
-    <row r="608" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K608" s="3"/>
     </row>
-    <row r="609" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K609" s="3"/>
     </row>
-    <row r="610" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K610" s="3"/>
     </row>
-    <row r="611" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K611" s="3"/>
     </row>
-    <row r="612" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K612" s="3"/>
     </row>
-    <row r="613" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K613" s="3"/>
     </row>
-    <row r="614" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K614" s="3"/>
     </row>
-    <row r="615" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K615" s="3"/>
     </row>
-    <row r="616" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K616" s="3"/>
     </row>
-    <row r="617" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K617" s="3"/>
     </row>
-    <row r="618" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K618" s="3"/>
     </row>
-    <row r="619" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K619" s="3"/>
     </row>
-    <row r="620" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K620" s="3"/>
     </row>
-    <row r="621" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K621" s="3"/>
     </row>
-    <row r="622" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K622" s="3"/>
     </row>
-    <row r="623" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K623" s="3"/>
     </row>
-    <row r="624" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K624" s="3"/>
     </row>
-    <row r="625" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K625" s="3"/>
     </row>
-    <row r="626" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K626" s="3"/>
     </row>
-    <row r="627" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K627" s="3"/>
     </row>
-    <row r="628" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K628" s="3"/>
     </row>
-    <row r="629" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K629" s="3"/>
     </row>
-    <row r="630" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K630" s="3"/>
     </row>
-    <row r="631" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K631" s="3"/>
     </row>
-    <row r="632" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K632" s="3"/>
     </row>
   </sheetData>
